--- a/Simon-test/test_data.xlsx
+++ b/Simon-test/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Studium\Pythonprojekt\Amazon-Price-Tracker\Simon-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFF4C80-A45B-44DC-A49B-8EDE4807EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F3E25F-F2F2-4389-9C3C-C755677623AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2532" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -420,6 +420,46 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
